--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -307,14 +307,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,28 +625,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
@@ -656,48 +656,48 @@
       <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C50336-AAC9-443D-8758-BBBBC06594D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,13 +137,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -164,6 +158,12 @@
       <color rgb="FFFF0000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,45 +275,27 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -323,12 +305,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,11 +603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,103 +623,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="J1" s="14" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -740,7 +741,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -759,7 +760,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
@@ -778,7 +779,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
@@ -797,7 +798,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -816,7 +817,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C50336-AAC9-443D-8758-BBBBC06594D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09467DC8-B91D-4CF8-AA4B-56671657B9C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O7"/>
+      <selection activeCell="B3" sqref="B1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09467DC8-B91D-4CF8-AA4B-56671657B9C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,18 +294,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -323,10 +310,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,11 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B1:L3"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,86 +623,86 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="9" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="17" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -722,7 +721,7 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -741,7 +740,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -760,7 +759,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
@@ -779,7 +778,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
@@ -798,7 +797,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -817,7 +816,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27960" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -105,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -160,6 +157,28 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -204,21 +223,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
@@ -231,15 +235,96 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -247,32 +332,83 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,47 +419,79 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="16">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -383,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -418,7 +586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -595,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,123 +773,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="12" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="12" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="15" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:12" ht="33" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:12" ht="33" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -739,8 +907,8 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:12" ht="33" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -758,8 +926,8 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:12" ht="33" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
@@ -777,8 +945,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:12" ht="33" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
@@ -796,8 +964,8 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" ht="33" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -815,8 +983,8 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" ht="33" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -842,7 +1010,16 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="59" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Retained Earnings</t>
   </si>
@@ -390,9 +390,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,12 +439,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="37" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -449,35 +453,41 @@
     <xf numFmtId="37" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -485,6 +495,11 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -492,6 +507,11 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -763,7 +783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -773,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -790,82 +810,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -900,7 +920,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3" t="s">
         <v>12</v>
@@ -919,7 +941,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,7 +962,9 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="3" t="s">
@@ -957,7 +983,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>10</v>
       </c>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152C6371-B62A-4271-84DC-A06161A5420E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="18930" windowHeight="5370" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="18930" windowHeight="5370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>Assets</t>
   </si>
@@ -123,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +229,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF20793E"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -502,7 +509,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,9 +589,6 @@
     <xf numFmtId="37" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +618,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -758,12 +774,13 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="135"/>
+    <cellStyle name="Normal 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF20793E"/>
       <color rgb="FF8DB4E2"/>
       <color rgb="FFD0F3FC"/>
       <color rgb="FFFEF1E6"/>
@@ -1102,11 +1119,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1124,32 +1141,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1159,24 +1176,24 @@
       <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="8"/>
       <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1220,7 +1237,7 @@
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="17"/>
@@ -1228,7 +1245,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="21"/>
@@ -1276,7 +1293,7 @@
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="17"/>
@@ -1284,13 +1301,13 @@
       <c r="F6" s="19"/>
       <c r="G6" s="28"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="32"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="44" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="22"/>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="42" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="24"/>
@@ -1305,11 +1322,11 @@
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="17"/>
       <c r="E7" s="30"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="19"/>
@@ -1319,7 +1336,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="22"/>
-      <c r="M7" s="33"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="24"/>
       <c r="O7" s="27"/>
       <c r="P7" s="25"/>
@@ -1334,9 +1351,9 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="19"/>
@@ -1344,11 +1361,11 @@
       <c r="H8" s="19"/>
       <c r="I8" s="29"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="22"/>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="44" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="24"/>
@@ -1375,9 +1392,9 @@
       <c r="H9" s="19"/>
       <c r="I9" s="29"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="33"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="33"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="24"/>
       <c r="O9" s="26"/>
       <c r="P9" s="25"/>
@@ -1390,7 +1407,7 @@
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="43" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="17"/>
@@ -1398,17 +1415,17 @@
         <v>18</v>
       </c>
       <c r="F10" s="19"/>
-      <c r="G10" s="35"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="34"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="37"/>
+      <c r="O10" s="36"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="35"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11" s="14"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152C6371-B62A-4271-84DC-A06161A5420E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C56B2F-0B8B-2A40-BF10-B52CF2F1BEB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="18930" windowHeight="5370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20820" windowHeight="12760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Assets</t>
   </si>
@@ -509,7 +509,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,6 +607,18 @@
     <xf numFmtId="37" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,16 +631,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,50 +1126,48 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="40.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1176,24 +1177,24 @@
       <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="8"/>
       <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="41"/>
       <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1230,14 +1231,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="17"/>
@@ -1245,7 +1246,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="37" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="21"/>
@@ -1253,11 +1254,11 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="20"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1274,26 +1275,24 @@
       <c r="H5" s="19"/>
       <c r="I5" s="29"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="K5" s="27"/>
       <c r="L5" s="22"/>
       <c r="M5" s="29"/>
       <c r="N5" s="24"/>
-      <c r="O5" s="30" t="s">
-        <v>18</v>
+      <c r="O5" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="28"/>
     </row>
-    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="17"/>
@@ -1303,19 +1302,17 @@
       <c r="H6" s="19"/>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="44" t="s">
-        <v>16</v>
-      </c>
+      <c r="K6" s="40"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="30"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="28"/>
+      <c r="Q6" s="30"/>
     </row>
-    <row r="7" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -1326,25 +1323,23 @@
       <c r="D7" s="17"/>
       <c r="E7" s="30"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="29"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="K7" s="26"/>
       <c r="L7" s="22"/>
       <c r="M7" s="32"/>
       <c r="N7" s="24"/>
       <c r="O7" s="27"/>
       <c r="P7" s="25"/>
-      <c r="Q7" s="30" t="s">
-        <v>18</v>
+      <c r="Q7" s="38" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1348,7 @@
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="19"/>
@@ -1361,11 +1356,9 @@
       <c r="H8" s="19"/>
       <c r="I8" s="29"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="42" t="s">
-        <v>16</v>
-      </c>
+      <c r="K8" s="38"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="40" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="24"/>
@@ -1373,7 +1366,7 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="28"/>
     </row>
-    <row r="9" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -1400,14 +1393,14 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="28"/>
     </row>
-    <row r="10" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="17"/>
@@ -1427,7 +1420,7 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="34"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E11" s="14"/>
     </row>
   </sheetData>
